--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2372562.220102429</v>
+        <v>-2375176.498718882</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673437</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.2887583700953</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>311.5701801934297</v>
+        <v>411.2146126744141</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>297.6072935907341</v>
       </c>
       <c r="I2" t="n">
-        <v>52.86845664851265</v>
+        <v>52.86845664851268</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>205.2000830738755</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.0186029205788</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -756,7 +756,7 @@
         <v>91.1103483761872</v>
       </c>
       <c r="I3" t="n">
-        <v>14.08691327674309</v>
+        <v>14.0869132767431</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>30.40392105295704</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.1571872936354</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>100.3033462869334</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>94.8394318079292</v>
+        <v>94.83943180792922</v>
       </c>
       <c r="S4" t="n">
-        <v>192.0586035981866</v>
+        <v>192.0586035981867</v>
       </c>
       <c r="T4" t="n">
-        <v>220.1102960603998</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>272.0902541204978</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>251.6862195725115</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>151.2796191729002</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>113.5103646250813</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>130.7976098817792</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,16 +1187,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>270.4333233586299</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>29.7649898211773</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1297,19 +1297,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>203.5013102426829</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>83.23259662571583</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>126.9263824507425</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>79.14040151644041</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>80.67842139643618</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,13 +1819,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>14.76058440587519</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2005,13 +2005,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>108.295034370327</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>26.05480806223591</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462238</v>
+        <v>83.06560892428035</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856546</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012162</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>178.2798710842949</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>115.0893535554446</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703257</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.3752467101216</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,25 +2713,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F28" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352493</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U28" t="n">
         <v>261.8998268972044</v>
@@ -2776,7 +2776,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
         <v>194.3000058600551</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2886,7 +2886,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3013,7 +3013,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096048</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.962173606588</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308914</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.239490800229</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652576</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808191</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3563,7 +3563,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1196.741094302022</v>
+        <v>943.1869499377992</v>
       </c>
       <c r="C2" t="n">
-        <v>1196.741094302022</v>
+        <v>943.1869499377992</v>
       </c>
       <c r="D2" t="n">
-        <v>838.475395695272</v>
+        <v>828.7538606750769</v>
       </c>
       <c r="E2" t="n">
-        <v>838.4753956952718</v>
+        <v>828.7538606750769</v>
       </c>
       <c r="F2" t="n">
-        <v>427.4894909056643</v>
+        <v>828.7538606750769</v>
       </c>
       <c r="G2" t="n">
-        <v>112.7721371749272</v>
+        <v>413.3855650443555</v>
       </c>
       <c r="H2" t="n">
         <v>112.7721371749272</v>
       </c>
       <c r="I2" t="n">
-        <v>59.36965571178315</v>
+        <v>59.36965571178311</v>
       </c>
       <c r="J2" t="n">
-        <v>223.6389510734994</v>
+        <v>223.6389510734995</v>
       </c>
       <c r="K2" t="n">
-        <v>520.5745606447435</v>
+        <v>520.5745606447437</v>
       </c>
       <c r="L2" t="n">
-        <v>925.8512030185025</v>
+        <v>925.851203018502</v>
       </c>
       <c r="M2" t="n">
-        <v>1408.468993552357</v>
+        <v>1408.468993552356</v>
       </c>
       <c r="N2" t="n">
-        <v>1903.509852877248</v>
+        <v>1903.509852877247</v>
       </c>
       <c r="O2" t="n">
-        <v>2357.627637384225</v>
+        <v>2357.627637384224</v>
       </c>
       <c r="P2" t="n">
-        <v>2710.70565921571</v>
+        <v>2710.705659215709</v>
       </c>
       <c r="Q2" t="n">
-        <v>2927.679802719472</v>
+        <v>2927.67980271947</v>
       </c>
       <c r="R2" t="n">
-        <v>2968.482785589157</v>
+        <v>2968.482785589155</v>
       </c>
       <c r="S2" t="n">
-        <v>2851.450538338332</v>
+        <v>2851.45053833833</v>
       </c>
       <c r="T2" t="n">
-        <v>2644.177727152598</v>
+        <v>2644.177727152597</v>
       </c>
       <c r="U2" t="n">
-        <v>2644.177727152598</v>
+        <v>2390.623582788376</v>
       </c>
       <c r="V2" t="n">
-        <v>2313.114839809028</v>
+        <v>2059.560695444805</v>
       </c>
       <c r="W2" t="n">
-        <v>1960.346184538914</v>
+        <v>1706.792040174691</v>
       </c>
       <c r="X2" t="n">
-        <v>1586.880426277834</v>
+        <v>1333.326281913611</v>
       </c>
       <c r="Y2" t="n">
-        <v>1196.741094302022</v>
+        <v>943.1869499377992</v>
       </c>
     </row>
     <row r="3">
@@ -4401,22 +4401,22 @@
         <v>165.6295159672683</v>
       </c>
       <c r="H3" t="n">
-        <v>73.59886104182667</v>
+        <v>73.59886104182665</v>
       </c>
       <c r="I3" t="n">
-        <v>59.36965571178315</v>
+        <v>59.36965571178311</v>
       </c>
       <c r="J3" t="n">
-        <v>138.3894757148951</v>
+        <v>138.389475714895</v>
       </c>
       <c r="K3" t="n">
-        <v>351.60175891689</v>
+        <v>591.3495759479388</v>
       </c>
       <c r="L3" t="n">
-        <v>684.6145268671326</v>
+        <v>924.3623438981811</v>
       </c>
       <c r="M3" t="n">
-        <v>1332.329405070861</v>
+        <v>1332.329405070862</v>
       </c>
       <c r="N3" t="n">
         <v>1765.502785324653</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>359.2327412001931</v>
+        <v>1700.381531456253</v>
       </c>
       <c r="C4" t="n">
-        <v>359.232741200193</v>
+        <v>1531.445348528346</v>
       </c>
       <c r="D4" t="n">
-        <v>359.232741200193</v>
+        <v>1531.445348528346</v>
       </c>
       <c r="E4" t="n">
-        <v>359.232741200193</v>
+        <v>1383.532254945953</v>
       </c>
       <c r="F4" t="n">
-        <v>328.5217098335698</v>
+        <v>1236.642307448042</v>
       </c>
       <c r="G4" t="n">
-        <v>160.6861671127259</v>
+        <v>1236.642307448042</v>
       </c>
       <c r="H4" t="n">
-        <v>160.6861671127259</v>
+        <v>1236.642307448042</v>
       </c>
       <c r="I4" t="n">
-        <v>59.36965571178315</v>
+        <v>1236.642307448042</v>
       </c>
       <c r="J4" t="n">
-        <v>95.29667538945989</v>
+        <v>1272.569327125719</v>
       </c>
       <c r="K4" t="n">
-        <v>284.1726417778209</v>
+        <v>1461.44529351408</v>
       </c>
       <c r="L4" t="n">
-        <v>581.3952856386278</v>
+        <v>1758.667937374887</v>
       </c>
       <c r="M4" t="n">
-        <v>905.1640129945956</v>
+        <v>2082.436664730855</v>
       </c>
       <c r="N4" t="n">
-        <v>1226.668860094579</v>
+        <v>2403.941511830838</v>
       </c>
       <c r="O4" t="n">
-        <v>1507.614327944344</v>
+        <v>2684.886979680603</v>
       </c>
       <c r="P4" t="n">
-        <v>1724.491028290281</v>
+        <v>2901.76368002654</v>
       </c>
       <c r="Q4" t="n">
-        <v>1791.210133852896</v>
+        <v>2968.482785589155</v>
       </c>
       <c r="R4" t="n">
-        <v>1695.412727986301</v>
+        <v>2872.68537972256</v>
       </c>
       <c r="S4" t="n">
-        <v>1501.414138493183</v>
+        <v>2678.686790229443</v>
       </c>
       <c r="T4" t="n">
-        <v>1279.080506108941</v>
+        <v>2678.686790229443</v>
       </c>
       <c r="U4" t="n">
-        <v>1279.080506108941</v>
+        <v>2678.686790229443</v>
       </c>
       <c r="V4" t="n">
-        <v>1279.080506108941</v>
+        <v>2424.002302023556</v>
       </c>
       <c r="W4" t="n">
-        <v>989.6633360719802</v>
+        <v>2149.1636614978</v>
       </c>
       <c r="X4" t="n">
-        <v>761.6737851739629</v>
+        <v>1921.174110599783</v>
       </c>
       <c r="Y4" t="n">
-        <v>540.8812060304327</v>
+        <v>1700.381531456253</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1381.278680221567</v>
+        <v>1405.526882613611</v>
       </c>
       <c r="C5" t="n">
-        <v>1012.316163281155</v>
+        <v>1036.564365673199</v>
       </c>
       <c r="D5" t="n">
-        <v>654.050464674405</v>
+        <v>678.2986670664488</v>
       </c>
       <c r="E5" t="n">
-        <v>268.2622120761608</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F5" t="n">
-        <v>261.3167113269573</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4568,7 +4568,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792695</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.48361052258</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.017852261501</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="Y5" t="n">
-        <v>1767.878520285689</v>
+        <v>1792.126722677733</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4668,28 +4668,28 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>181.169050396912</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="C7" t="n">
-        <v>181.169050396912</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="D7" t="n">
-        <v>181.169050396912</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="E7" t="n">
-        <v>181.169050396912</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F7" t="n">
-        <v>181.169050396912</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>181.169050396912</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4726,16 +4726,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1795.17575022811</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1795.17575022811</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1506.072883353754</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1251.388395147867</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251691</v>
+        <v>961.9712251109063</v>
       </c>
       <c r="X7" t="n">
-        <v>362.8175152271517</v>
+        <v>733.9816742128889</v>
       </c>
       <c r="Y7" t="n">
-        <v>362.8175152271517</v>
+        <v>513.1890950693588</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1619.798686923957</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C8" t="n">
-        <v>1250.836169983545</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D8" t="n">
-        <v>892.5704713767946</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4835,19 +4835,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2736.172432430963</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2383.403777160848</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X8" t="n">
-        <v>2009.938018899768</v>
+        <v>2394.678395166736</v>
       </c>
       <c r="Y8" t="n">
-        <v>1619.798686923957</v>
+        <v>2004.539063190924</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,49 +4884,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>826.5851666348717</v>
+        <v>796.8106393615039</v>
       </c>
       <c r="C10" t="n">
-        <v>657.6489837069648</v>
+        <v>627.8744564335971</v>
       </c>
       <c r="D10" t="n">
-        <v>507.5323442946291</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E10" t="n">
-        <v>359.619250712236</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1530.051784882306</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1530.051784882306</v>
+        <v>1561.704876747882</v>
       </c>
       <c r="V10" t="n">
-        <v>1275.367296676419</v>
+        <v>1307.020388541995</v>
       </c>
       <c r="W10" t="n">
-        <v>1275.367296676419</v>
+        <v>1017.603218505034</v>
       </c>
       <c r="X10" t="n">
-        <v>1047.377745778402</v>
+        <v>1017.603218505034</v>
       </c>
       <c r="Y10" t="n">
-        <v>826.5851666348717</v>
+        <v>796.8106393615039</v>
       </c>
     </row>
     <row r="11">
@@ -5033,55 +5033,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,25 +5112,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400716</v>
+        <v>948.55052085119</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400716</v>
+        <v>779.6143379232831</v>
       </c>
       <c r="D13" t="n">
-        <v>363.7369613277359</v>
+        <v>779.6143379232831</v>
       </c>
       <c r="E13" t="n">
-        <v>363.7369613277359</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>363.7369613277359</v>
+        <v>484.8112968429801</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
         <v>2035.089393279803</v>
@@ -5221,28 +5221,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1430.931364336516</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138413</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703113</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="14">
@@ -5258,16 +5258,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5276,25 +5276,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5352,25 +5352,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>788.0191461778179</v>
+        <v>803.2707707770314</v>
       </c>
       <c r="C16" t="n">
-        <v>788.0191461778179</v>
+        <v>634.3345878491245</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654821</v>
+        <v>484.217948436789</v>
       </c>
       <c r="E16" t="n">
-        <v>489.989413183089</v>
+        <v>484.217948436789</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851786</v>
+        <v>484.217948436789</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>317.0218491516689</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.310017993867</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5449,7 +5449,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
@@ -5464,22 +5464,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1962.551399292453</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1707.866911086566</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1418.449741049605</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X16" t="n">
-        <v>1190.460190151588</v>
+        <v>1205.711814750801</v>
       </c>
       <c r="Y16" t="n">
-        <v>969.6676110080576</v>
+        <v>984.9192356072712</v>
       </c>
     </row>
     <row r="17">
@@ -5510,31 +5510,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5595,22 +5595,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961525</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M18" t="n">
-        <v>1337.934786622704</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N18" t="n">
-        <v>1965.532750177311</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400716</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121647</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121647</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E19" t="n">
-        <v>235.5284942057738</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F19" t="n">
         <v>235.5284942057738</v>
@@ -5671,10 +5671,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
         <v>826.1405381797742</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138414</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703113</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,31 +5771,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>139.234765840794</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>139.234765840794</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356189</v>
+        <v>344.9174178121638</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232833</v>
+        <v>344.9174178121638</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408903</v>
+        <v>344.9174178121638</v>
       </c>
       <c r="F22" t="n">
-        <v>484.81129684298</v>
+        <v>344.9174178121638</v>
       </c>
       <c r="G22" t="n">
-        <v>317.61519755786</v>
+        <v>177.7213185270429</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1280.315625093765</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093765</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6005,31 +6005,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>984.919235607273</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C25" t="n">
-        <v>815.9830526793661</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D25" t="n">
-        <v>665.8664132670303</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="E25" t="n">
-        <v>549.614540988804</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908937</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057737</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.052681478295</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038336</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797738</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.711814750803</v>
+        <v>916.2946447138405</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.919235607273</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6239,37 +6239,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2978.493192213311</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C28" t="n">
-        <v>2834.08695624706</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D28" t="n">
-        <v>2708.500263796381</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E28" t="n">
-        <v>2585.117117175644</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F28" t="n">
-        <v>2462.75711663939</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G28" t="n">
-        <v>2320.090964315926</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H28" t="n">
-        <v>2202.90908011978</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>2145.352323729351</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>2249.630143176794</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>2535.361206719452</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L28" t="n">
-        <v>2949.801601912511</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M28" t="n">
-        <v>3395.853105660665</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N28" t="n">
-        <v>3837.304778337792</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O28" t="n">
-        <v>4230.875860063897</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P28" t="n">
-        <v>4547.593116654574</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
-        <v>4648.317395612652</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S28" t="n">
-        <v>4489.992508229213</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T28" t="n">
-        <v>4294.92099021381</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U28" t="n">
-        <v>4030.375710519665</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V28" t="n">
-        <v>3800.221169275434</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W28" t="n">
-        <v>3535.33394620013</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X28" t="n">
-        <v>3331.874342263769</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y28" t="n">
-        <v>3135.611710081895</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="29">
@@ -6449,40 +6449,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C31" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G31" t="n">
         <v>268.5553036345477</v>
@@ -6616,13 +6616,13 @@
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L31" t="n">
         <v>898.2659412311323</v>
@@ -6652,16 +6652,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y31" t="n">
         <v>1084.076049400516</v>
@@ -6674,52 +6674,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N33" t="n">
-        <v>1815.886107649656</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6853,7 +6853,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
@@ -6883,7 +6883,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6929,25 +6929,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>139.234765840794</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N36" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942663</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580123</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,10 +7117,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7163,19 +7163,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7199,22 +7199,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>139.234765840794</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580119</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345482</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
         <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7360,22 +7360,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7397,40 +7397,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>3210.485548300425</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>3210.485548300425</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N42" t="n">
-        <v>3838.083511855032</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O42" t="n">
-        <v>4389.993242094319</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150018</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942649</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580108</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.555303634547</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954148</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7597,22 +7597,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7634,40 +7634,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954148</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8058,13 +8058,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>242.1695121525746</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>242.1695121525736</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.872575263447146</v>
+        <v>9.872575263447175</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22550,19 +22550,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.3942832505877</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>99.64443248098445</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>297.6072935907341</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22601,7 +22601,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.0186029205788</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>115.0171269699742</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.1571872936354</v>
       </c>
       <c r="H4" t="n">
         <v>145.9230939674644</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>100.3033462869334</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22756,16 +22756,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.1102960603998</v>
       </c>
       <c r="U4" t="n">
         <v>286.2190043347733</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>14.43274421609317</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>38.59775584152639</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272838</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>146.5692538725967</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>0.587414922129355</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>271.423889983369</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,13 +23893,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>38.13892827624219</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>119.3662399606953</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194356</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,16 +24184,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>108.2431272522961</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>31.34460909112451</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194321</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856543</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>-6.07974838807602e-13</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32460.91116143662</v>
+        <v>32460.91116143661</v>
       </c>
       <c r="C2" t="n">
-        <v>41052.08849321416</v>
+        <v>41052.08849321417</v>
       </c>
       <c r="D2" t="n">
         <v>41052.08849321416</v>
       </c>
       <c r="E2" t="n">
-        <v>40357.32998450031</v>
+        <v>40357.32998450029</v>
       </c>
       <c r="F2" t="n">
-        <v>40357.32998450031</v>
+        <v>40357.32998450028</v>
       </c>
       <c r="G2" t="n">
-        <v>40357.32998450031</v>
+        <v>40357.32998450028</v>
       </c>
       <c r="H2" t="n">
-        <v>40357.3299845003</v>
+        <v>40357.32998450029</v>
       </c>
       <c r="I2" t="n">
-        <v>40357.32998450029</v>
+        <v>40357.32998450028</v>
       </c>
       <c r="J2" t="n">
-        <v>41052.08849321421</v>
+        <v>41052.08849321415</v>
       </c>
       <c r="K2" t="n">
+        <v>41052.0884932142</v>
+      </c>
+      <c r="L2" t="n">
+        <v>41052.0884932142</v>
+      </c>
+      <c r="M2" t="n">
         <v>41052.08849321419</v>
       </c>
-      <c r="L2" t="n">
-        <v>41052.08849321418</v>
-      </c>
-      <c r="M2" t="n">
-        <v>41052.08849321416</v>
-      </c>
       <c r="N2" t="n">
-        <v>41052.08849321418</v>
+        <v>41052.08849321417</v>
       </c>
       <c r="O2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.0884932142</v>
       </c>
       <c r="P2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.0884932142</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>1228620.061871473</v>
       </c>
       <c r="C3" t="n">
-        <v>95186.49343973087</v>
+        <v>95186.49343973145</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,28 +26381,28 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>5.684341886080801e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>213599.1454818041</v>
+        <v>213599.145481804</v>
       </c>
       <c r="K3" t="n">
-        <v>22978.0103835997</v>
+        <v>22978.01038359991</v>
       </c>
       <c r="L3" t="n">
-        <v>6.252776074688882e-11</v>
+        <v>2.557953848736361e-11</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363165</v>
+        <v>19427.7179936318</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14779.83765767047</v>
+        <v>14779.83765767048</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813245</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="E4" t="n">
+        <v>10557.08828678123</v>
+      </c>
+      <c r="F4" t="n">
         <v>10557.08828678121</v>
       </c>
-      <c r="F4" t="n">
-        <v>10557.08828678123</v>
-      </c>
       <c r="G4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678127</v>
       </c>
       <c r="I4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
-        <v>18547.94754987467</v>
+        <v>18547.94754987474</v>
       </c>
       <c r="K4" t="n">
-        <v>18547.94754987466</v>
+        <v>18547.94754987468</v>
       </c>
       <c r="L4" t="n">
         <v>18547.94754987469</v>
       </c>
       <c r="M4" t="n">
-        <v>18547.94754987469</v>
+        <v>18547.94754987474</v>
       </c>
       <c r="N4" t="n">
+        <v>18547.94754987474</v>
+      </c>
+      <c r="O4" t="n">
         <v>18547.94754987468</v>
       </c>
-      <c r="O4" t="n">
-        <v>18547.94754987466</v>
-      </c>
       <c r="P4" t="n">
-        <v>18547.94754987466</v>
+        <v>18547.94754987468</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1311856.405688682</v>
+        <v>-1312285.964555271</v>
       </c>
       <c r="C6" t="n">
-        <v>-251812.4685660425</v>
+        <v>-251812.468566043</v>
       </c>
       <c r="D6" t="n">
         <v>-156625.9751263116</v>
       </c>
       <c r="E6" t="n">
-        <v>-396734.7499335434</v>
+        <v>-396769.4878589793</v>
       </c>
       <c r="F6" t="n">
-        <v>-71322.28812618804</v>
+        <v>-71357.02605162373</v>
       </c>
       <c r="G6" t="n">
-        <v>-71322.28812618804</v>
+        <v>-71357.02605162373</v>
       </c>
       <c r="H6" t="n">
-        <v>-71322.2881261881</v>
+        <v>-71357.02605162375</v>
       </c>
       <c r="I6" t="n">
-        <v>-71322.28812618804</v>
+        <v>-71357.02605162373</v>
       </c>
       <c r="J6" t="n">
-        <v>-294259.1203923799</v>
+        <v>-294259.12039238</v>
       </c>
       <c r="K6" t="n">
-        <v>-103637.9852941756</v>
+        <v>-103637.9852941758</v>
       </c>
       <c r="L6" t="n">
-        <v>-80659.97491057598</v>
+        <v>-80659.97491057593</v>
       </c>
       <c r="M6" t="n">
-        <v>-165715.0028460878</v>
+        <v>-165715.0028460877</v>
       </c>
       <c r="N6" t="n">
-        <v>-80659.9749105759</v>
+        <v>-80659.97491057595</v>
       </c>
       <c r="O6" t="n">
-        <v>-100087.6929042075</v>
+        <v>-100087.6929042077</v>
       </c>
       <c r="P6" t="n">
-        <v>-80659.97491057587</v>
+        <v>-80659.97491057588</v>
       </c>
     </row>
   </sheetData>
@@ -26701,31 +26701,31 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L2" t="n">
         <v>24.28464749203977</v>
       </c>
       <c r="M2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203979</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203975</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1016.921054129329</v>
+        <v>1016.921054129328</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>742.1206963972893</v>
+        <v>742.1206963972888</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26923,19 +26923,19 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203962</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.815970093361102e-14</v>
+        <v>3.197442310920451e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203957</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1016.921054129329</v>
+        <v>1016.921054129328</v>
       </c>
       <c r="C3" t="n">
-        <v>72.85564646396972</v>
+        <v>72.85564646397017</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>742.1206963972893</v>
+        <v>742.1206963972888</v>
       </c>
       <c r="C4" t="n">
-        <v>89.28075900500335</v>
+        <v>89.28075900500392</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>742.1206963972893</v>
+        <v>742.1206963972886</v>
       </c>
       <c r="K4" t="n">
-        <v>89.28075900500335</v>
+        <v>89.28075900500414</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,13 +27160,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203962</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>742.1206963972893</v>
+        <v>742.1206963972888</v>
       </c>
       <c r="K4" t="n">
-        <v>89.28075900500335</v>
+        <v>89.28075900500392</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>130.2441504997503</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>259.6421064805533</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27786,13 +27786,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>31.24465028923949</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>58.97141544966274</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,16 +27907,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>57.31893511150503</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>339.9661108572917</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28017,19 +28017,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>16.04763903348629</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>202.9792415798971</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-6.570160877615213e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28299,7 +28299,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>4.462208380573429e-12</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.285372470912988e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29281,7 +29281,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="32">
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203979</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203979</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203979</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203979</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203979</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203979</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203979</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203979</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203979</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203979</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203979</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203979</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203979</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203979</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203979</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203979</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203979</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203979</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203979</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203979</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203979</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203979</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203979</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203979</v>
       </c>
     </row>
     <row r="38">
@@ -30283,7 +30283,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.088124840720916</v>
+        <v>4.088124840720915</v>
       </c>
       <c r="H2" t="n">
-        <v>41.86750852503309</v>
+        <v>41.86750852503308</v>
       </c>
       <c r="I2" t="n">
-        <v>157.6074329218933</v>
+        <v>157.6074329218932</v>
       </c>
       <c r="J2" t="n">
-        <v>346.9744857001372</v>
+        <v>346.9744857001371</v>
       </c>
       <c r="K2" t="n">
-        <v>520.0248102078536</v>
+        <v>520.0248102078535</v>
       </c>
       <c r="L2" t="n">
-        <v>645.1367608020665</v>
+        <v>645.1367608020663</v>
       </c>
       <c r="M2" t="n">
-        <v>717.8389509382371</v>
+        <v>717.8389509382368</v>
       </c>
       <c r="N2" t="n">
-        <v>729.4543356419354</v>
+        <v>729.4543356419352</v>
       </c>
       <c r="O2" t="n">
-        <v>688.8030442570167</v>
+        <v>688.8030442570166</v>
       </c>
       <c r="P2" t="n">
-        <v>587.8774622517191</v>
+        <v>587.877462251719</v>
       </c>
       <c r="Q2" t="n">
-        <v>441.4714913934011</v>
+        <v>441.471491393401</v>
       </c>
       <c r="R2" t="n">
-        <v>256.8006720259355</v>
+        <v>256.8006720259354</v>
       </c>
       <c r="S2" t="n">
-        <v>93.15814480792797</v>
+        <v>93.15814480792794</v>
       </c>
       <c r="T2" t="n">
-        <v>17.89576649025582</v>
+        <v>17.89576649025581</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3270499872576732</v>
+        <v>0.3270499872576731</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31124,40 +31124,40 @@
         <v>21.12509586030926</v>
       </c>
       <c r="I3" t="n">
-        <v>75.30971957467199</v>
+        <v>75.30971957467197</v>
       </c>
       <c r="J3" t="n">
         <v>206.6556266698101</v>
       </c>
       <c r="K3" t="n">
-        <v>353.2073816026368</v>
+        <v>353.2073816026366</v>
       </c>
       <c r="L3" t="n">
-        <v>474.9309130629474</v>
+        <v>474.9309130629472</v>
       </c>
       <c r="M3" t="n">
-        <v>554.221974500484</v>
+        <v>554.2219745004838</v>
       </c>
       <c r="N3" t="n">
-        <v>568.8905810265571</v>
+        <v>568.890581026557</v>
       </c>
       <c r="O3" t="n">
-        <v>520.4237398429593</v>
+        <v>520.4237398429592</v>
       </c>
       <c r="P3" t="n">
         <v>417.6859325913463</v>
       </c>
       <c r="Q3" t="n">
-        <v>279.2119845224527</v>
+        <v>279.2119845224526</v>
       </c>
       <c r="R3" t="n">
         <v>135.8069287005168</v>
       </c>
       <c r="S3" t="n">
-        <v>40.62887419092174</v>
+        <v>40.62887419092173</v>
       </c>
       <c r="T3" t="n">
-        <v>8.816513667404271</v>
+        <v>8.816513667404267</v>
       </c>
       <c r="U3" t="n">
         <v>0.1439039227541503</v>
@@ -31200,10 +31200,10 @@
         <v>1.833792064823379</v>
       </c>
       <c r="H4" t="n">
-        <v>16.30407853997515</v>
+        <v>16.30407853997514</v>
       </c>
       <c r="I4" t="n">
-        <v>55.14712864032492</v>
+        <v>55.1471286403249</v>
       </c>
       <c r="J4" t="n">
         <v>129.6490989830129</v>
@@ -31212,7 +31212,7 @@
         <v>213.0532962585707</v>
       </c>
       <c r="L4" t="n">
-        <v>272.6348675283777</v>
+        <v>272.6348675283776</v>
       </c>
       <c r="M4" t="n">
         <v>287.4552415795411</v>
@@ -31221,22 +31221,22 @@
         <v>280.620198428836</v>
       </c>
       <c r="O4" t="n">
-        <v>259.1981729443083</v>
+        <v>259.1981729443082</v>
       </c>
       <c r="P4" t="n">
-        <v>221.7888148219112</v>
+        <v>221.7888148219111</v>
       </c>
       <c r="Q4" t="n">
         <v>153.5550791735286</v>
       </c>
       <c r="R4" t="n">
-        <v>82.45395956924028</v>
+        <v>82.45395956924027</v>
       </c>
       <c r="S4" t="n">
-        <v>31.95799443878561</v>
+        <v>31.9579944387856</v>
       </c>
       <c r="T4" t="n">
-        <v>7.835293367881709</v>
+        <v>7.835293367881707</v>
       </c>
       <c r="U4" t="n">
         <v>0.100025021717639</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,25 +31835,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31865,7 +31865,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32078,22 +32078,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>639.47033547631</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32315,25 +32315,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>271.1474903386692</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32546,13 +32546,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>172.7144981745678</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,19 +32789,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>337.5641188593843</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,37 +33172,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236526</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33211,10 +33211,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,40 +33257,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>217.8799919951683</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33336,28 +33336,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33366,7 +33366,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,37 +33409,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175693</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33448,10 +33448,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33497,37 +33497,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>614.59004755871</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33573,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,37 +33646,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33685,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33734,37 +33734,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
-        <v>181.9330708814852</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33971,37 +33971,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
-        <v>181.9330708814852</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043738</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,40 +34205,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P42" t="n">
-        <v>400.8433522134838</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043738</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34445,37 +34445,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>251.886104915025</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>165.9285811734509</v>
+        <v>165.9285811734508</v>
       </c>
       <c r="K2" t="n">
-        <v>299.9349591628731</v>
+        <v>299.934959162873</v>
       </c>
       <c r="L2" t="n">
-        <v>409.3703458320793</v>
+        <v>409.3703458320791</v>
       </c>
       <c r="M2" t="n">
-        <v>487.4927177109644</v>
+        <v>487.4927177109641</v>
       </c>
       <c r="N2" t="n">
-        <v>500.0412720453444</v>
+        <v>500.0412720453443</v>
       </c>
       <c r="O2" t="n">
-        <v>458.70483283533</v>
+        <v>458.7048328353299</v>
       </c>
       <c r="P2" t="n">
-        <v>356.6444664964495</v>
+        <v>356.6444664964494</v>
       </c>
       <c r="Q2" t="n">
-        <v>219.1658015189516</v>
+        <v>219.1658015189515</v>
       </c>
       <c r="R2" t="n">
-        <v>41.21513421180333</v>
+        <v>41.21513421180327</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>79.8180000031434</v>
+        <v>79.81800000314337</v>
       </c>
       <c r="K3" t="n">
-        <v>215.3659426282778</v>
+        <v>457.5354547808522</v>
       </c>
       <c r="L3" t="n">
-        <v>336.3765332830732</v>
+        <v>336.3765332830731</v>
       </c>
       <c r="M3" t="n">
-        <v>654.2574527310393</v>
+        <v>412.0879405784655</v>
       </c>
       <c r="N3" t="n">
-        <v>437.5488689432239</v>
+        <v>437.5488689432237</v>
       </c>
       <c r="O3" t="n">
-        <v>377.8274953985149</v>
+        <v>377.8274953985148</v>
       </c>
       <c r="P3" t="n">
-        <v>283.7115251770161</v>
+        <v>283.711525177016</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.2302104364312</v>
+        <v>139.2302104364311</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>36.28991886634012</v>
+        <v>36.28991886634009</v>
       </c>
       <c r="K4" t="n">
-        <v>190.7838044326879</v>
+        <v>190.7838044326878</v>
       </c>
       <c r="L4" t="n">
-        <v>300.2248927886939</v>
+        <v>300.2248927886938</v>
       </c>
       <c r="M4" t="n">
-        <v>327.0391185413817</v>
+        <v>327.0391185413816</v>
       </c>
       <c r="N4" t="n">
         <v>324.7523708080646</v>
       </c>
       <c r="O4" t="n">
-        <v>283.783300858348</v>
+        <v>283.7833008583479</v>
       </c>
       <c r="P4" t="n">
         <v>219.0673740868046</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.39303592183423</v>
+        <v>67.3930359218342</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35483,25 +35483,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,19 +35729,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>508.1286233929767</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35963,25 +35963,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>128.5512458942248</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>45.87687150790109</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295343</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,16 +36440,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>199.0097390795101</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36513,25 +36513,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295349</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,28 +36668,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36762,10 +36762,10 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
@@ -36826,31 +36826,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.587454168383</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L30" t="n">
-        <v>79.32561221529411</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
         <v>288.6172359016746</v>
@@ -37002,10 +37002,10 @@
         <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q31" t="n">
         <v>144.686904791938</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902966</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>471.9938031142656</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37233,13 +37233,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>44.09163190712619</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>44.09163190712619</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37707,13 +37707,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P42" t="n">
-        <v>266.8689447991536</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37944,16 +37944,16 @@
         <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930847</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.910780481947</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q43" t="n">
         <v>144.686904791938</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>120.5443928316917</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
@@ -38187,10 +38187,10 @@
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q46" t="n">
         <v>144.686904791938</v>
